--- a/rnaSample/rnaSample_H.BROWN_10.03.20.xlsx
+++ b/rnaSample/rnaSample_H.BROWN_10.03.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30161AB6-F5E6-264F-BC50-581502502485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C995FB-E475-B64D-B191-8B941E12D962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="460" windowWidth="22720" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B53"/>
+      <selection activeCell="F2" sqref="F2:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -1175,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -1201,7 +1201,7 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
@@ -1227,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
@@ -1357,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
@@ -1383,7 +1383,7 @@
         <v>8</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
@@ -1409,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
@@ -1435,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
@@ -1461,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
@@ -1487,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
@@ -1513,7 +1513,7 @@
         <v>8</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
@@ -1539,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="F43">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
@@ -1565,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="F44">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
@@ -1591,7 +1591,7 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
@@ -1617,7 +1617,7 @@
         <v>8</v>
       </c>
       <c r="F46">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
         <v>9</v>
@@ -1643,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="F47">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
         <v>9</v>
@@ -1669,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="F48">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
@@ -1695,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="F49">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -1721,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
@@ -1747,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="F51">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s">
         <v>9</v>
@@ -1773,7 +1773,7 @@
         <v>8</v>
       </c>
       <c r="F52">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
         <v>9</v>
@@ -1799,7 +1799,7 @@
         <v>8</v>
       </c>
       <c r="F53">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s">
         <v>9</v>
